--- a/RawDatabase.xlsx
+++ b/RawDatabase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bakti\Google Drive\A1-Fall-Database-System\DBS2-Create-Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\SQL_in_R\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093F4582-FE0A-4BFE-B628-ACAFA7DD2612}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B410F0-7214-4CC1-B305-F37289748E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="7" xr2:uid="{2843F6AA-9E8A-43A1-9128-09C98906518E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{2843F6AA-9E8A-43A1-9128-09C98906518E}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -5086,7 +5086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB2D99D-705F-4AE1-925B-F9A162E39323}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -17741,7 +17741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2C5E1A-0A21-4E29-B17A-9A9706FF0CA1}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
